--- a/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,86%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 14,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 21,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,29; 15,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,36; 2,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,63; 109,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,94; 149,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,95; 51,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,64; 6,47</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 8,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,88; 16,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 12,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 10,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 44,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,1; 83,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 39,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 21,98</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,87%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 7,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 8,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 14,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 27,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 30,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 13,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 30,37</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,84; 5,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 9,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; 1,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; 20,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 21,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 25,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,29; 2,2</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 5,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 9,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 7,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 6,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 17,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 31,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 16,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 11,19</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 4,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 7,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 5,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 15,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 25,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 13,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 8,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 14,31</t>
+          <t>-2,58; 8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 21,95</t>
+          <t>5,65; 15,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 15,72</t>
+          <t>-1,34; 10,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 2,67</t>
+          <t>-3,32; 7,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 109,72</t>
+          <t>-10,39; 40,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 149,27</t>
+          <t>22,89; 79,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 51,79</t>
+          <t>-3,71; 33,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 6,47</t>
+          <t>-6,11; 14,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,8%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>30,13%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 8,99</t>
+          <t>-2,34; 7,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 16,31</t>
+          <t>-1,24; 8,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 12,02</t>
+          <t>-4,36; 5,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 10,2</t>
+          <t>0,23; 36,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 44,72</t>
+          <t>-7,15; 27,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,1; 83,06</t>
+          <t>-3,53; 30,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 39,25</t>
+          <t>-9,81; 13,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 21,98</t>
+          <t>0,28; 152,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>-14,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>-25,93%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,3</t>
+          <t>-5,84; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,2</t>
+          <t>-4,63; 6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,09</t>
+          <t>-2,4; 9,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 14,49</t>
+          <t>-33,61; 0,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 27,25</t>
+          <t>-18,57; 20,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 30,32</t>
+          <t>-13,49; 21,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 13,41</t>
+          <t>-6,16; 25,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 30,37</t>
+          <t>-59,23; 0,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 5,05</t>
+          <t>-3,72; 5,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,34</t>
+          <t>0,3; 9,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 9,18</t>
+          <t>-2,67; 7,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 1,2</t>
+          <t>-1,12; 10,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 20,61</t>
+          <t>-9,84; 17,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 21,85</t>
+          <t>0,84; 31,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 25,24</t>
+          <t>-5,47; 16,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 2,2</t>
+          <t>-1,84; 18,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,81</t>
+          <t>-0,99; 4,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,53</t>
+          <t>2,25; 7,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 7,05</t>
+          <t>-0,41; 5,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,6</t>
+          <t>-6,66; 14,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 17,84</t>
+          <t>-3,12; 15,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 31,3</t>
+          <t>7,37; 25,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 16,46</t>
+          <t>-0,96; 13,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 11,19</t>
+          <t>-11,57; 32,21</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 4,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 7,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 5,22</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 4,51</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 15,26</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 25,7</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 13,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 8,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 8,42</t>
+          <t>-1,86; 8,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 15,74</t>
+          <t>5,56; 15,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,71</t>
+          <t>-1,29; 10,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 7,02</t>
+          <t>-4,02; 7,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 40,0</t>
+          <t>-7,07; 43,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 79,96</t>
+          <t>21,9; 83,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 33,26</t>
+          <t>-3,2; 33,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 14,72</t>
+          <t>-7,35; 15,96</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,3</t>
+          <t>-1,97; 7,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,2</t>
+          <t>-1,4; 8,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,09</t>
+          <t>-4,02; 5,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 36,33</t>
+          <t>0,23; 35,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 27,25</t>
+          <t>-6,29; 27,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 30,32</t>
+          <t>-4,47; 29,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 13,41</t>
+          <t>-9,49; 15,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 152,46</t>
+          <t>0,33; 143,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 5,05</t>
+          <t>-5,93; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,34</t>
+          <t>-4,78; 5,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 9,18</t>
+          <t>-2,37; 9,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 0,5</t>
+          <t>-35,93; -0,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 20,61</t>
+          <t>-18,66; 17,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 21,85</t>
+          <t>-13,53; 20,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 25,24</t>
+          <t>-5,39; 27,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 0,95</t>
+          <t>-65,07; -0,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,81</t>
+          <t>-3,95; 5,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,53</t>
+          <t>0,38; 9,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 7,05</t>
+          <t>-3,33; 6,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,88</t>
+          <t>-1,08; 11,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 17,84</t>
+          <t>-10,52; 17,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 31,3</t>
+          <t>1,0; 31,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 16,46</t>
+          <t>-6,89; 15,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 18,15</t>
+          <t>-1,76; 19,06</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,32</t>
+          <t>-0,91; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,22</t>
+          <t>2,23; 7,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,22</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 14,46</t>
+          <t>-6,26; 13,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 15,26</t>
+          <t>-2,91; 15,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 25,7</t>
+          <t>7,15; 25,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 13,18</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 32,21</t>
+          <t>-11,37; 29,22</t>
         </is>
       </c>
     </row>
